--- a/tut05/output/0401CS40.xlsx
+++ b/tut05/output/0401CS40.xlsx
@@ -553,22 +553,22 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>8.340909090909092</v>
+        <v>8.34</v>
       </c>
       <c r="D6" t="n">
-        <v>8.883720930232558</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.021276595744681</v>
+        <v>8.02</v>
       </c>
       <c r="F6" t="n">
-        <v>8.785714285714286</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>8.15</v>
       </c>
       <c r="H6" t="n">
-        <v>8.902439024390244</v>
+        <v>8.9</v>
       </c>
       <c r="I6" t="n">
         <v>8.949999999999999</v>
@@ -615,25 +615,25 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>8.161290322580646</v>
+        <v>8.16</v>
       </c>
       <c r="D8" t="n">
-        <v>8.389705882352942</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>8.295081967213115</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.386666666666667</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.350943396226414</v>
+        <v>8.35</v>
       </c>
       <c r="H8" t="n">
-        <v>8.42483660130719</v>
+        <v>8.42</v>
       </c>
       <c r="I8" t="n">
-        <v>8.485549132947977</v>
+        <v>8.49</v>
       </c>
     </row>
   </sheetData>
